--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Research-Work\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101CF15A-F9DA-454C-B8CA-3BCFCE320D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">List1!$A$1:$AT$31</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,15 +27,184 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+  <si>
+    <t>Т а б е л ь №</t>
+  </si>
+  <si>
+    <t>учета использования рабочего времени</t>
+  </si>
+  <si>
+    <t>КОДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма по ОКУД </t>
+  </si>
+  <si>
+    <t>за период с 1 по</t>
+  </si>
+  <si>
+    <t>ноября  2023</t>
+  </si>
+  <si>
+    <t>г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата </t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО "МГТУ "СТАНКИН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по ОКПО </t>
+  </si>
+  <si>
+    <t>Структурное подразделение</t>
+  </si>
+  <si>
+    <t>Вид табеля</t>
+  </si>
+  <si>
+    <t>первичный</t>
+  </si>
+  <si>
+    <t>Номер корректировки</t>
+  </si>
+  <si>
+    <t>(первичный - 0; корректирующий - 1, 2, и т.д.)</t>
+  </si>
+  <si>
+    <t>Дата формирования документа</t>
+  </si>
+  <si>
+    <t>Фамилия, имя, отчество</t>
+  </si>
+  <si>
+    <t>Учетный номер</t>
+  </si>
+  <si>
+    <t>Должность (профессия)</t>
+  </si>
+  <si>
+    <t>Числа месяца</t>
+  </si>
+  <si>
+    <t>Итого дней (часов) явок (неявок) с 1 по 15</t>
+  </si>
+  <si>
+    <t>Всего дней (часов) явок (неявок) за месяц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ААВ ВПП   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">string454 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAAA     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответственный </t>
+  </si>
+  <si>
+    <t>Отметка бухгалтерии о принятии настоящего табеля</t>
+  </si>
+  <si>
+    <t>исполнитель</t>
+  </si>
+  <si>
+    <t>(должность)</t>
+  </si>
+  <si>
+    <t>(подпись)</t>
+  </si>
+  <si>
+    <t>(расшифровка подписи)</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>"_______ "_______________________ 20_____ г.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0000000"/>
+    <numFmt numFmtId="165" formatCode="00000000&quot;  &quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -45,15 +223,616 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +845,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>64565</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>64925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFB3633-4B2A-48D0-A096-536A506D8E54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4725465" y="316380"/>
+          <a:ext cx="360" cy="360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1176,1829 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="0.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" customWidth="1"/>
+    <col min="8" max="44" width="4.54296875" customWidth="1"/>
+    <col min="45" max="45" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="0.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+    </row>
+    <row r="3" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="37">
+        <v>504421</v>
+      </c>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+    </row>
+    <row r="6" spans="1:46" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="4">
+        <v>15</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+    </row>
+    <row r="7" spans="1:46" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" s="42">
+        <v>2068775</v>
+      </c>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="43"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="43"/>
+      <c r="AT8" s="43"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="40"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+    </row>
+    <row r="13" spans="1:46" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4</v>
+      </c>
+      <c r="L13" s="6">
+        <v>5</v>
+      </c>
+      <c r="M13" s="6">
+        <v>6</v>
+      </c>
+      <c r="N13" s="6">
+        <v>7</v>
+      </c>
+      <c r="O13" s="6">
+        <v>8</v>
+      </c>
+      <c r="P13" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>10</v>
+      </c>
+      <c r="R13" s="6">
+        <v>11</v>
+      </c>
+      <c r="S13" s="6">
+        <v>12</v>
+      </c>
+      <c r="T13" s="6">
+        <v>13</v>
+      </c>
+      <c r="U13" s="6">
+        <v>14</v>
+      </c>
+      <c r="V13" s="7">
+        <v>15</v>
+      </c>
+      <c r="W13" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="8">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>19</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>20</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>22</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>23</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>24</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>25</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>26</v>
+      </c>
+      <c r="AK13" s="6">
+        <v>27</v>
+      </c>
+      <c r="AL13" s="6">
+        <v>28</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>29</v>
+      </c>
+      <c r="AN13" s="9">
+        <v>30</v>
+      </c>
+      <c r="AO13" s="9">
+        <v>31</v>
+      </c>
+      <c r="AP13" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A14" s="62">
+        <v>1</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>3</v>
+      </c>
+      <c r="F14" s="63">
+        <v>4</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="11">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11">
+        <v>6</v>
+      </c>
+      <c r="J14" s="11">
+        <v>7</v>
+      </c>
+      <c r="K14" s="11">
+        <v>8</v>
+      </c>
+      <c r="L14" s="11">
+        <v>9</v>
+      </c>
+      <c r="M14" s="11">
+        <v>10</v>
+      </c>
+      <c r="N14" s="11">
+        <v>11</v>
+      </c>
+      <c r="O14" s="11">
+        <v>12</v>
+      </c>
+      <c r="P14" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>14</v>
+      </c>
+      <c r="R14" s="11">
+        <v>15</v>
+      </c>
+      <c r="S14" s="11">
+        <v>16</v>
+      </c>
+      <c r="T14" s="11">
+        <v>17</v>
+      </c>
+      <c r="U14" s="11">
+        <v>18</v>
+      </c>
+      <c r="V14" s="12">
+        <v>19</v>
+      </c>
+      <c r="W14" s="64">
+        <v>20</v>
+      </c>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="10">
+        <v>21</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>23</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>24</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>25</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>26</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>27</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>28</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>29</v>
+      </c>
+      <c r="AI14" s="11">
+        <v>30</v>
+      </c>
+      <c r="AJ14" s="11">
+        <v>31</v>
+      </c>
+      <c r="AK14" s="11">
+        <v>32</v>
+      </c>
+      <c r="AL14" s="11">
+        <v>33</v>
+      </c>
+      <c r="AM14" s="11">
+        <v>34</v>
+      </c>
+      <c r="AN14" s="11">
+        <v>35</v>
+      </c>
+      <c r="AO14" s="11">
+        <v>36</v>
+      </c>
+      <c r="AP14" s="51">
+        <v>37</v>
+      </c>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+    </row>
+    <row r="15" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="52">
+        <v>1</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="58"/>
+      <c r="AS15" s="58"/>
+      <c r="AT15" s="58"/>
+    </row>
+    <row r="16" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="60"/>
+      <c r="AQ16" s="60"/>
+      <c r="AR16" s="60"/>
+      <c r="AS16" s="60"/>
+      <c r="AT16" s="60"/>
+    </row>
+    <row r="17" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="65">
+        <v>2</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="60"/>
+    </row>
+    <row r="18" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="61"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="60"/>
+    </row>
+    <row r="19" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="65">
+        <v>3</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="60"/>
+      <c r="AQ19" s="60"/>
+      <c r="AR19" s="60"/>
+      <c r="AS19" s="60"/>
+      <c r="AT19" s="60"/>
+    </row>
+    <row r="20" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="60"/>
+      <c r="AR20" s="60"/>
+      <c r="AS20" s="60"/>
+      <c r="AT20" s="60"/>
+    </row>
+    <row r="21" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="65">
+        <v>4</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="60"/>
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="60"/>
+      <c r="AS21" s="60"/>
+      <c r="AT21" s="60"/>
+    </row>
+    <row r="22" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="60"/>
+      <c r="AR22" s="60"/>
+      <c r="AS22" s="60"/>
+      <c r="AT22" s="60"/>
+    </row>
+    <row r="23" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="65">
+        <v>5</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="60"/>
+      <c r="AQ23" s="60"/>
+      <c r="AR23" s="60"/>
+      <c r="AS23" s="60"/>
+      <c r="AT23" s="60"/>
+    </row>
+    <row r="24" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="60"/>
+      <c r="AR24" s="60"/>
+      <c r="AS24" s="60"/>
+      <c r="AT24" s="60"/>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="21"/>
+      <c r="AT25" s="21"/>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="27"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="1"/>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="1"/>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="1"/>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="74"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="75"/>
+      <c r="AP29" s="75"/>
+      <c r="AQ29" s="75"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="28"/>
+      <c r="AT29" s="1"/>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="30"/>
+      <c r="AR30" s="28"/>
+      <c r="AS30" s="28"/>
+      <c r="AT30" s="1"/>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="33"/>
+      <c r="AR31" s="28"/>
+      <c r="AS31" s="28"/>
+      <c r="AT31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="86">
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="AA28:AE28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="AA29:AE29"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="AL29:AQ29"/>
+    <mergeCell ref="AP23:AT23"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="AP24:AT24"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="AP21:AT21"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="AP17:AT17"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AP18:AT18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="AP19:AT19"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="AP20:AT20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="AP14:AT14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="AP15:AT15"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="AP16:AT16"/>
+    <mergeCell ref="K10:V10"/>
+    <mergeCell ref="AF10:AM10"/>
+    <mergeCell ref="AN10:AT10"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:AT12"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="F7:AE7"/>
+    <mergeCell ref="AN7:AT7"/>
+    <mergeCell ref="F8:AE8"/>
+    <mergeCell ref="AN8:AT8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="AN9:AT9"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="U6:AB6"/>
+    <mergeCell ref="AN6:AT6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Research-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101CF15A-F9DA-454C-B8CA-3BCFCE320D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2842A555-BC96-4926-B0B7-075008C8F75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32790" yWindow="2535" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -701,6 +701,120 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -713,122 +827,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1304,19 +1304,19 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -1375,15 +1375,15 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
-      <c r="AN4" s="36" t="s">
+      <c r="AN4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -1427,15 +1427,15 @@
       <c r="AM5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AN5" s="37">
+      <c r="AN5" s="75">
         <v>504421</v>
       </c>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="75"/>
     </row>
     <row r="6" spans="1:46" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -1448,30 +1448,30 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="1"/>
       <c r="S6" s="4">
         <v>15</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
       <c r="AC6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1487,13 +1487,13 @@
       <c r="AM6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
     </row>
     <row r="7" spans="1:46" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -1501,34 +1501,34 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="67"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -1539,15 +1539,15 @@
       <c r="AM7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AN7" s="42">
+      <c r="AN7" s="68">
         <v>2068775</v>
       </c>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -1557,32 +1557,32 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -1591,13 +1591,13 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="43"/>
-      <c r="AT8" s="43"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -1611,10 +1611,10 @@
         <v>12</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1636,24 +1636,24 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="38" t="s">
+      <c r="AG9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="45">
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="71">
         <v>0</v>
       </c>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
@@ -1666,20 +1666,20 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -1689,23 +1689,23 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="38" t="s">
+      <c r="AF10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="40"/>
-      <c r="AO10" s="40"/>
-      <c r="AP10" s="40"/>
-      <c r="AQ10" s="40"/>
-      <c r="AR10" s="40"/>
-      <c r="AS10" s="40"/>
-      <c r="AT10" s="40"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -1756,69 +1756,69 @@
       <c r="AT11" s="1"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="47" t="s">
+      <c r="E12" s="64"/>
+      <c r="F12" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
     </row>
     <row r="13" spans="1:46" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="6">
         <v>1</v>
       </c>
@@ -1864,11 +1864,11 @@
       <c r="V13" s="7">
         <v>15</v>
       </c>
-      <c r="W13" s="49" t="s">
+      <c r="W13" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
       <c r="Z13" s="8">
         <v>16</v>
       </c>
@@ -1917,30 +1917,30 @@
       <c r="AO13" s="9">
         <v>31</v>
       </c>
-      <c r="AP13" s="50" t="s">
+      <c r="AP13" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A14" s="62">
+      <c r="A14" s="50">
         <v>1</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="10">
         <v>2</v>
       </c>
       <c r="E14" s="11">
         <v>3</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="51">
         <v>4</v>
       </c>
-      <c r="G14" s="63"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="11">
         <v>5</v>
       </c>
@@ -1986,11 +1986,11 @@
       <c r="V14" s="12">
         <v>19</v>
       </c>
-      <c r="W14" s="64">
+      <c r="W14" s="52">
         <v>20</v>
       </c>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
       <c r="Z14" s="10">
         <v>21</v>
       </c>
@@ -2039,24 +2039,24 @@
       <c r="AO14" s="11">
         <v>36</v>
       </c>
-      <c r="AP14" s="51">
+      <c r="AP14" s="53">
         <v>37</v>
       </c>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
     </row>
     <row r="15" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="52">
+      <c r="A15" s="54">
         <v>1</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -2072,9 +2072,9 @@
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
@@ -2091,22 +2091,22 @@
       <c r="AM15" s="13"/>
       <c r="AN15" s="13"/>
       <c r="AO15" s="13"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="58"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
+      <c r="AR15" s="59"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="59"/>
     </row>
     <row r="16" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -2122,9 +2122,9 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
@@ -2141,22 +2141,22 @@
       <c r="AM16" s="13"/>
       <c r="AN16" s="13"/>
       <c r="AO16" s="13"/>
-      <c r="AP16" s="60"/>
-      <c r="AQ16" s="60"/>
-      <c r="AR16" s="60"/>
-      <c r="AS16" s="60"/>
-      <c r="AT16" s="60"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
     </row>
     <row r="17" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="65">
+      <c r="A17" s="43">
         <v>2</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -2172,9 +2172,9 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
@@ -2191,24 +2191,24 @@
       <c r="AM17" s="13"/>
       <c r="AN17" s="13"/>
       <c r="AO17" s="13"/>
-      <c r="AP17" s="60"/>
-      <c r="AQ17" s="60"/>
-      <c r="AR17" s="60"/>
-      <c r="AS17" s="60"/>
-      <c r="AT17" s="60"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
     </row>
     <row r="18" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="61" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -2224,9 +2224,9 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
@@ -2243,22 +2243,22 @@
       <c r="AM18" s="13"/>
       <c r="AN18" s="13"/>
       <c r="AO18" s="13"/>
-      <c r="AP18" s="60"/>
-      <c r="AQ18" s="60"/>
-      <c r="AR18" s="60"/>
-      <c r="AS18" s="60"/>
-      <c r="AT18" s="60"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
     </row>
     <row r="19" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="65">
+      <c r="A19" s="43">
         <v>3</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="13"/>
@@ -2276,9 +2276,9 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
@@ -2295,20 +2295,20 @@
       <c r="AM19" s="13"/>
       <c r="AN19" s="13"/>
       <c r="AO19" s="14"/>
-      <c r="AP19" s="60"/>
-      <c r="AQ19" s="60"/>
-      <c r="AR19" s="60"/>
-      <c r="AS19" s="60"/>
-      <c r="AT19" s="60"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
     </row>
     <row r="20" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -2324,9 +2324,9 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
@@ -2343,22 +2343,22 @@
       <c r="AM20" s="15"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="13"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="60"/>
-      <c r="AR20" s="60"/>
-      <c r="AS20" s="60"/>
-      <c r="AT20" s="60"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
     </row>
     <row r="21" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="65">
+      <c r="A21" s="43">
         <v>4</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -2374,9 +2374,9 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
@@ -2393,20 +2393,20 @@
       <c r="AM21" s="13"/>
       <c r="AN21" s="13"/>
       <c r="AO21" s="13"/>
-      <c r="AP21" s="60"/>
-      <c r="AQ21" s="60"/>
-      <c r="AR21" s="60"/>
-      <c r="AS21" s="60"/>
-      <c r="AT21" s="60"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
     </row>
     <row r="22" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -2422,9 +2422,9 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
@@ -2441,22 +2441,22 @@
       <c r="AM22" s="13"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="13"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="60"/>
-      <c r="AR22" s="60"/>
-      <c r="AS22" s="60"/>
-      <c r="AT22" s="60"/>
+      <c r="AP22" s="41"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
     </row>
     <row r="23" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="65">
+      <c r="A23" s="43">
         <v>5</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -2472,9 +2472,9 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
@@ -2491,20 +2491,20 @@
       <c r="AM23" s="14"/>
       <c r="AN23" s="14"/>
       <c r="AO23" s="14"/>
-      <c r="AP23" s="60"/>
-      <c r="AQ23" s="60"/>
-      <c r="AR23" s="60"/>
-      <c r="AS23" s="60"/>
-      <c r="AT23" s="60"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
     </row>
     <row r="24" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -2520,9 +2520,9 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
@@ -2539,11 +2539,11 @@
       <c r="AM24" s="13"/>
       <c r="AN24" s="13"/>
       <c r="AO24" s="13"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="60"/>
-      <c r="AR24" s="60"/>
-      <c r="AS24" s="60"/>
-      <c r="AT24" s="60"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
@@ -2599,22 +2599,22 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="1"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="24"/>
@@ -2651,28 +2651,28 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="73" t="s">
+      <c r="M27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="29"/>
@@ -2725,11 +2725,11 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="31"/>
       <c r="AH28" s="31"/>
@@ -2752,22 +2752,22 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="1"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="29"/>
@@ -2775,29 +2775,29 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="74" t="s">
+      <c r="AA29" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="74" t="s">
+      <c r="AG29" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AH29" s="74"/>
-      <c r="AI29" s="74"/>
-      <c r="AJ29" s="74"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
       <c r="AK29" s="1"/>
-      <c r="AL29" s="75" t="s">
+      <c r="AL29" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="75"/>
-      <c r="AP29" s="75"/>
-      <c r="AQ29" s="75"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="38"/>
       <c r="AR29" s="1"/>
       <c r="AS29" s="28"/>
       <c r="AT29" s="1"/>
@@ -2806,28 +2806,28 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="73" t="s">
+      <c r="H30" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="73" t="s">
+      <c r="M30" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="29"/>
@@ -2910,38 +2910,44 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="AA28:AE28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="AA29:AE29"/>
-    <mergeCell ref="AG29:AJ29"/>
-    <mergeCell ref="AL29:AQ29"/>
-    <mergeCell ref="AP23:AT23"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="AP24:AT24"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="M27:S27"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="AP21:AT21"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="AP22:AT22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AN5:AT5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="U6:AB6"/>
+    <mergeCell ref="AN6:AT6"/>
+    <mergeCell ref="F7:AE7"/>
+    <mergeCell ref="AN7:AT7"/>
+    <mergeCell ref="F8:AE8"/>
+    <mergeCell ref="AN8:AT8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="AN9:AT9"/>
+    <mergeCell ref="K10:V10"/>
+    <mergeCell ref="AF10:AM10"/>
+    <mergeCell ref="AN10:AT10"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:AT12"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="AP14:AT14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="AP15:AT15"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="AP16:AT16"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="W17:Y17"/>
     <mergeCell ref="AP17:AT17"/>
     <mergeCell ref="W18:Y18"/>
     <mergeCell ref="AP18:AT18"/>
@@ -2958,44 +2964,38 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="AP14:AT14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="AP15:AT15"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="AP16:AT16"/>
-    <mergeCell ref="K10:V10"/>
-    <mergeCell ref="AF10:AM10"/>
-    <mergeCell ref="AN10:AT10"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:AT12"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="AP13:AT13"/>
-    <mergeCell ref="F7:AE7"/>
-    <mergeCell ref="AN7:AT7"/>
-    <mergeCell ref="F8:AE8"/>
-    <mergeCell ref="AN8:AT8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="AG9:AM9"/>
-    <mergeCell ref="AN9:AT9"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="U6:AB6"/>
-    <mergeCell ref="AN6:AT6"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="AP21:AT21"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="AL29:AQ29"/>
+    <mergeCell ref="AP23:AT23"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="AP24:AT24"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="AA28:AE28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="AA29:AE29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
